--- a/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Prasanna & Sai.xlsx
+++ b/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Prasanna & Sai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -121,9 +121,6 @@
     <t>7M GRASS TRENCH</t>
   </si>
   <si>
-    <t>NO CONNECT</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 RIPON PL TAMATEA </t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t xml:space="preserve">only connect </t>
   </si>
   <si>
-    <t xml:space="preserve">PENDING </t>
-  </si>
-  <si>
     <t>Iauditor Not submitted</t>
   </si>
   <si>
@@ -236,16 +230,110 @@
   </si>
   <si>
     <t xml:space="preserve">Total amount </t>
+  </si>
+  <si>
+    <r>
+      <t>Failed install within 7 days - approved by Chris Langley</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NGA_PS_14442018_78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>D502/14,WET QUAY</t>
+  </si>
+  <si>
+    <t>Prasannakumar Bayri</t>
+  </si>
+  <si>
+    <t> Build completed by another tech on another S.o</t>
+  </si>
+  <si>
+    <t>P-NGA-BUILD ABF</t>
+  </si>
+  <si>
+    <t>ZNGA561B</t>
+  </si>
+  <si>
+    <t>NGA_PS_14442018_80</t>
+  </si>
+  <si>
+    <t>7 SCOTT  PL</t>
+  </si>
+  <si>
+    <t> fault within 7 days - approved by Chris Langley</t>
+  </si>
+  <si>
+    <t>P-NGA-CONNCT SDU</t>
+  </si>
+  <si>
+    <t>X392N</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Addreess</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Reason for deduction</t>
+  </si>
+  <si>
+    <t>Skill code</t>
+  </si>
+  <si>
+    <t>Approved Date</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Payment Code</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,10 +354,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -283,8 +373,52 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +447,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +539,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,20 +887,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +959,7 @@
         <v>307.79000000000002</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,7 +1133,7 @@
         <v>498.69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,11 +1180,9 @@
         <v>24</v>
       </c>
       <c r="G11" s="3">
-        <v>383.5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>626.70000000000005</v>
+      </c>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1016,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -1040,10 +1219,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -1064,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1085,16 +1264,16 @@
         <v>7130768</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3">
         <v>225.02</v>
@@ -1112,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
@@ -1133,16 +1312,16 @@
         <v>7130984</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3">
         <v>225.02</v>
@@ -1160,10 +1339,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
@@ -1172,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
@@ -1198,7 +1377,7 @@
         <v>254.64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,13 +1391,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G20" s="3">
         <v>881.69</v>
@@ -1236,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="3">
-        <v>6263.7</v>
+        <v>626.70000000000005</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1260,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
@@ -1281,13 +1460,13 @@
         <v>7218757</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -1308,10 +1487,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -1329,16 +1508,16 @@
         <v>7330456</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3">
         <v>90</v>
@@ -1353,16 +1532,16 @@
         <v>7089440</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="3">
         <v>90</v>
@@ -1380,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>24</v>
@@ -1404,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>24</v>
@@ -1419,12 +1598,129 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="9">
         <f>SUM(G2:G28)</f>
-        <v>16613.550000000003</v>
-      </c>
+        <v>11219.750000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
+        <v>5054531</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="17">
+        <v>-194.94</v>
+      </c>
+      <c r="H34" s="15">
+        <v>43179</v>
+      </c>
+      <c r="I34" s="15">
+        <v>43179</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2206070</v>
+      </c>
+      <c r="D35" s="13">
+        <v>5668521</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="17">
+        <v>-141.83000000000001</v>
+      </c>
+      <c r="H35" s="15">
+        <v>43193</v>
+      </c>
+      <c r="I35" s="15">
+        <v>43193</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="16">
+        <v>-12.03</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
